--- a/__Outline.xlsx
+++ b/__Outline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16a9defdddf7d0d5/_Code Practice/LeetCode/SQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taifu/Documents/_Github/LeetCode-SQL-Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{0D3EB5FB-67AE-C146-8162-006F7E0E8239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{796A01BD-7FC6-D14D-ACDD-FEBE0896A6EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE72C8F-80D3-CB48-BD2F-20E3D0B0BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="16800" xr2:uid="{5FE43EAC-A723-0645-82C4-0CF7F3038888}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="576">
   <si>
     <t>#</t>
   </si>
@@ -1760,13 +1760,13 @@
     <t>https://www.db-fiddle.com/f/mvSGvifrBT4tsLBF9egQGn/0 }</t>
   </si>
   <si>
-    <t>Title with Data</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.db-fiddle.com/f/mvSGvifrBT4tsLBF9egQGn/0 </t>
+  </si>
+  <si>
+    <t>Title with Data Schema</t>
   </si>
 </sst>
 </file>
@@ -1914,6 +1914,72 @@
   </cellStyles>
   <dxfs count="46">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1954,46 +2020,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2004,19 +2031,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2030,19 +2045,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2055,9 +2058,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2134,32 +2134,32 @@
     <sortCondition ref="C1:C217"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="19" xr3:uid="{358CDE6E-B81A-9F42-9CE7-2E562172C28F}" name="Status" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="19" xr3:uid="{358CDE6E-B81A-9F42-9CE7-2E562172C28F}" name="Status" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="21">
       <totalsRowFormula>SUBTOTAL(103,Table1[Status]) &amp; "/" &amp; SUBTOTAL(103,Table1[Difficulty])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6547787F-5BD7-514D-B4CB-B5CE196EA94B}" name="#" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="17" xr3:uid="{6547787F-5BD7-514D-B4CB-B5CE196EA94B}" name="#" totalsRowFunction="count" dataDxfId="43" totalsRowDxfId="20">
       <calculatedColumnFormula>HYPERLINK(Table1[[#This Row],[LeetCode Link]],Table1[[#This Row],['#'#]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0AAC7D7E-5B70-8541-93A3-198C7D1A292E}" name="##" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{2D1258A4-5732-A348-BEC2-50862C7B91F6}" name="LeetCode Link" totalsRowFunction="count" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{C223A91F-587C-E849-ACBC-14F65BDC8A7C}" name="Difficulty" totalsRowFunction="count" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{E63345E3-5A78-B442-A222-8EAECF94557F}" name="Title with Data" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{481715FE-E5C4-884E-8F25-0379BEC99628}" name="Title" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{2F37B829-B758-474D-98B4-9E0A30C8129B}" name="Schema" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="20" xr3:uid="{B743DF5E-D273-3641-8586-142A375E9B55}" name="Skills" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{5EE3E31C-39DE-1F4C-B941-6820499816B8}" name="Basics" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F04311E2-6BF3-9E44-B1E3-F340E5A4D6C1}" name="Rank" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{ABFE3577-1E71-154D-B6A2-3422E4A130A6}" name="Join" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{7A5416BB-EA8A-9C4D-A94F-7BB930867039}" name="Subquery" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{61475BF6-D4E5-0A46-94F4-72954607F785}" name="Advanced Join" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{045EF99E-6B85-FD45-9C92-A2E63592C28B}" name="Advanced Subquery" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{9E2ABA1B-5906-C842-860C-C6A583127C8E}" name="Case When or IIF" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{D4393776-B023-3C4B-A288-B893DFCA15BD}" name="Offset Fetch" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{4E47F025-7B28-C246-9611-5CEFE6CAC839}" name="Pivot and Unpivot" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{516FA076-AF80-4A43-A17D-BE726093B2E7}" name="Recursive CTE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{C999FA7A-3797-2D40-8ACE-F6FA147B3CAF}" name="SQL Command" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{21E4EE96-EED2-C64A-8CD3-BB60976590EC}" name="Variable" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{EC81A661-39CD-BF45-8F2F-360BF40CE6E9}" name="Window Function" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0AAC7D7E-5B70-8541-93A3-198C7D1A292E}" name="##" totalsRowFunction="count" dataDxfId="42" totalsRowDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{2D1258A4-5732-A348-BEC2-50862C7B91F6}" name="LeetCode Link" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{C223A91F-587C-E849-ACBC-14F65BDC8A7C}" name="Difficulty" totalsRowFunction="count" dataDxfId="40" totalsRowDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{E63345E3-5A78-B442-A222-8EAECF94557F}" name="Title with Data Schema" dataDxfId="39" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{481715FE-E5C4-884E-8F25-0379BEC99628}" name="Title" dataDxfId="38" totalsRowDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{2F37B829-B758-474D-98B4-9E0A30C8129B}" name="Schema" dataDxfId="37" totalsRowDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{B743DF5E-D273-3641-8586-142A375E9B55}" name="Skills" dataDxfId="36" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5EE3E31C-39DE-1F4C-B941-6820499816B8}" name="Basics" dataDxfId="35" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F04311E2-6BF3-9E44-B1E3-F340E5A4D6C1}" name="Rank" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{ABFE3577-1E71-154D-B6A2-3422E4A130A6}" name="Join" dataDxfId="33" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{7A5416BB-EA8A-9C4D-A94F-7BB930867039}" name="Subquery" dataDxfId="32" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{61475BF6-D4E5-0A46-94F4-72954607F785}" name="Advanced Join" dataDxfId="31" totalsRowDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{045EF99E-6B85-FD45-9C92-A2E63592C28B}" name="Advanced Subquery" dataDxfId="30" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{9E2ABA1B-5906-C842-860C-C6A583127C8E}" name="Case When or IIF" dataDxfId="29" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{D4393776-B023-3C4B-A288-B893DFCA15BD}" name="Offset Fetch" dataDxfId="28" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{4E47F025-7B28-C246-9611-5CEFE6CAC839}" name="Pivot and Unpivot" dataDxfId="27" totalsRowDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{516FA076-AF80-4A43-A17D-BE726093B2E7}" name="Recursive CTE" dataDxfId="26" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{C999FA7A-3797-2D40-8ACE-F6FA147B3CAF}" name="SQL Command" dataDxfId="25" totalsRowDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{21E4EE96-EED2-C64A-8CD3-BB60976590EC}" name="Variable" dataDxfId="24" totalsRowDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{EC81A661-39CD-BF45-8F2F-360BF40CE6E9}" name="Window Function" dataDxfId="23" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2465,8 +2465,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V218"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A209" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A241" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>446</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
@@ -11038,7 +11038,9 @@
       <c r="E126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="11"/>
+      <c r="F126" t="s">
+        <v>80</v>
+      </c>
       <c r="G126" s="2" t="s">
         <v>80</v>
       </c>
@@ -11101,7 +11103,9 @@
       <c r="E127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F127" s="11"/>
+      <c r="F127" t="s">
+        <v>81</v>
+      </c>
       <c r="G127" s="2" t="s">
         <v>81</v>
       </c>
@@ -11164,7 +11168,9 @@
       <c r="E128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F128" s="11"/>
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
       <c r="G128" s="2" t="s">
         <v>82</v>
       </c>
@@ -11227,7 +11233,9 @@
       <c r="E129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="11"/>
+      <c r="F129" t="s">
+        <v>83</v>
+      </c>
       <c r="G129" s="2" t="s">
         <v>83</v>
       </c>
@@ -11290,7 +11298,9 @@
       <c r="E130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="F130" t="s">
+        <v>186</v>
+      </c>
       <c r="G130" s="2" t="s">
         <v>186</v>
       </c>
@@ -11353,7 +11363,9 @@
       <c r="E131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F131" s="11"/>
+      <c r="F131" t="s">
+        <v>84</v>
+      </c>
       <c r="G131" s="2" t="s">
         <v>84</v>
       </c>
@@ -11390,7 +11402,9 @@
       <c r="E132" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F132" s="11"/>
+      <c r="F132" t="s">
+        <v>187</v>
+      </c>
       <c r="G132" s="2" t="s">
         <v>187</v>
       </c>
@@ -11427,7 +11441,9 @@
       <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F133" s="11"/>
+      <c r="F133" t="s">
+        <v>85</v>
+      </c>
       <c r="G133" s="2" t="s">
         <v>85</v>
       </c>
@@ -11464,7 +11480,9 @@
       <c r="E134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F134" s="11"/>
+      <c r="F134" t="s">
+        <v>86</v>
+      </c>
       <c r="G134" s="2" t="s">
         <v>86</v>
       </c>
@@ -11501,7 +11519,9 @@
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="11"/>
+      <c r="F135" t="s">
+        <v>188</v>
+      </c>
       <c r="G135" s="2" t="s">
         <v>188</v>
       </c>
@@ -11538,7 +11558,9 @@
       <c r="E136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F136" s="11"/>
+      <c r="F136" t="s">
+        <v>189</v>
+      </c>
       <c r="G136" s="2" t="s">
         <v>189</v>
       </c>
@@ -11575,7 +11597,9 @@
       <c r="E137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="11"/>
+      <c r="F137" t="s">
+        <v>190</v>
+      </c>
       <c r="G137" s="2" t="s">
         <v>190</v>
       </c>
@@ -11612,7 +11636,9 @@
       <c r="E138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F138" s="11"/>
+      <c r="F138" t="s">
+        <v>87</v>
+      </c>
       <c r="G138" s="2" t="s">
         <v>87</v>
       </c>
@@ -11649,7 +11675,9 @@
       <c r="E139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F139" s="11"/>
+      <c r="F139" t="s">
+        <v>88</v>
+      </c>
       <c r="G139" s="2" t="s">
         <v>88</v>
       </c>
@@ -11686,7 +11714,9 @@
       <c r="E140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F140" s="11"/>
+      <c r="F140" t="s">
+        <v>89</v>
+      </c>
       <c r="G140" s="2" t="s">
         <v>89</v>
       </c>
@@ -11723,7 +11753,9 @@
       <c r="E141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F141" s="11"/>
+      <c r="F141" t="s">
+        <v>90</v>
+      </c>
       <c r="G141" s="2" t="s">
         <v>90</v>
       </c>
@@ -11760,7 +11792,9 @@
       <c r="E142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="11"/>
+      <c r="F142" t="s">
+        <v>91</v>
+      </c>
       <c r="G142" s="2" t="s">
         <v>91</v>
       </c>
@@ -11797,7 +11831,9 @@
       <c r="E143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F143" s="11"/>
+      <c r="F143" t="s">
+        <v>191</v>
+      </c>
       <c r="G143" s="2" t="s">
         <v>191</v>
       </c>
@@ -11832,7 +11868,9 @@
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F144" s="8"/>
+      <c r="F144" t="s">
+        <v>192</v>
+      </c>
       <c r="G144" s="2" t="s">
         <v>192</v>
       </c>
@@ -11867,7 +11905,9 @@
       <c r="E145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="8"/>
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
       <c r="G145" s="2" t="s">
         <v>193</v>
       </c>
@@ -11902,7 +11942,9 @@
       <c r="E146" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="8"/>
+      <c r="F146" t="s">
+        <v>92</v>
+      </c>
       <c r="G146" s="2" t="s">
         <v>92</v>
       </c>
@@ -11937,7 +11979,9 @@
       <c r="E147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="8"/>
+      <c r="F147" t="s">
+        <v>93</v>
+      </c>
       <c r="G147" s="2" t="s">
         <v>93</v>
       </c>
@@ -11972,7 +12016,9 @@
       <c r="E148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F148" s="8"/>
+      <c r="F148" t="s">
+        <v>94</v>
+      </c>
       <c r="G148" s="2" t="s">
         <v>94</v>
       </c>
@@ -12007,7 +12053,9 @@
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="8"/>
+      <c r="F149" t="s">
+        <v>194</v>
+      </c>
       <c r="G149" s="2" t="s">
         <v>194</v>
       </c>
@@ -12042,7 +12090,9 @@
       <c r="E150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F150" s="8"/>
+      <c r="F150" t="s">
+        <v>95</v>
+      </c>
       <c r="G150" s="2" t="s">
         <v>95</v>
       </c>
@@ -12077,7 +12127,9 @@
       <c r="E151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F151" s="8"/>
+      <c r="F151" t="s">
+        <v>195</v>
+      </c>
       <c r="G151" s="2" t="s">
         <v>195</v>
       </c>
@@ -12112,7 +12164,9 @@
       <c r="E152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F152" s="8"/>
+      <c r="F152" t="s">
+        <v>96</v>
+      </c>
       <c r="G152" s="2" t="s">
         <v>96</v>
       </c>
@@ -12147,7 +12201,9 @@
       <c r="E153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F153" s="8"/>
+      <c r="F153" t="s">
+        <v>196</v>
+      </c>
       <c r="G153" s="2" t="s">
         <v>196</v>
       </c>
@@ -12182,7 +12238,9 @@
       <c r="E154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F154" s="8"/>
+      <c r="F154" t="s">
+        <v>97</v>
+      </c>
       <c r="G154" s="2" t="s">
         <v>97</v>
       </c>
@@ -12225,7 +12283,7 @@
         <v>98</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I155" s="2"/>
       <c r="J155" s="1"/>
@@ -12255,7 +12313,9 @@
       <c r="E156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F156" s="8"/>
+      <c r="F156" t="s">
+        <v>99</v>
+      </c>
       <c r="G156" s="2" t="s">
         <v>99</v>
       </c>
@@ -12290,7 +12350,9 @@
       <c r="E157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="8"/>
+      <c r="F157" t="s">
+        <v>197</v>
+      </c>
       <c r="G157" s="2" t="s">
         <v>197</v>
       </c>
@@ -12325,7 +12387,9 @@
       <c r="E158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F158" s="8"/>
+      <c r="F158" t="s">
+        <v>100</v>
+      </c>
       <c r="G158" s="2" t="s">
         <v>100</v>
       </c>
@@ -12360,7 +12424,9 @@
       <c r="E159" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F159" s="8"/>
+      <c r="F159" t="s">
+        <v>198</v>
+      </c>
       <c r="G159" s="2" t="s">
         <v>198</v>
       </c>
@@ -12395,7 +12461,9 @@
       <c r="E160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="8"/>
+      <c r="F160" t="s">
+        <v>199</v>
+      </c>
       <c r="G160" s="2" t="s">
         <v>199</v>
       </c>
@@ -12430,7 +12498,9 @@
       <c r="E161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F161" s="8"/>
+      <c r="F161" t="s">
+        <v>200</v>
+      </c>
       <c r="G161" s="2" t="s">
         <v>200</v>
       </c>
@@ -12465,7 +12535,9 @@
       <c r="E162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="8"/>
+      <c r="F162" t="s">
+        <v>101</v>
+      </c>
       <c r="G162" s="2" t="s">
         <v>101</v>
       </c>
@@ -12500,7 +12572,9 @@
       <c r="E163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="8"/>
+      <c r="F163" t="s">
+        <v>201</v>
+      </c>
       <c r="G163" s="2" t="s">
         <v>201</v>
       </c>
@@ -12535,7 +12609,9 @@
       <c r="E164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F164" s="8"/>
+      <c r="F164" t="s">
+        <v>102</v>
+      </c>
       <c r="G164" s="2" t="s">
         <v>102</v>
       </c>
@@ -12570,7 +12646,9 @@
       <c r="E165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F165" s="8"/>
+      <c r="F165" t="s">
+        <v>202</v>
+      </c>
       <c r="G165" s="2" t="s">
         <v>202</v>
       </c>
@@ -12605,7 +12683,9 @@
       <c r="E166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="8"/>
+      <c r="F166" t="s">
+        <v>103</v>
+      </c>
       <c r="G166" s="2" t="s">
         <v>103</v>
       </c>
@@ -12640,7 +12720,9 @@
       <c r="E167" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F167" s="8"/>
+      <c r="F167" t="s">
+        <v>203</v>
+      </c>
       <c r="G167" s="2" t="s">
         <v>203</v>
       </c>
@@ -12675,7 +12757,9 @@
       <c r="E168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F168" s="8"/>
+      <c r="F168" t="s">
+        <v>204</v>
+      </c>
       <c r="G168" s="2" t="s">
         <v>204</v>
       </c>
@@ -12710,7 +12794,9 @@
       <c r="E169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="8"/>
+      <c r="F169" t="s">
+        <v>205</v>
+      </c>
       <c r="G169" s="2" t="s">
         <v>205</v>
       </c>
@@ -12745,7 +12831,9 @@
       <c r="E170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="8"/>
+      <c r="F170" t="s">
+        <v>206</v>
+      </c>
       <c r="G170" s="2" t="s">
         <v>206</v>
       </c>
@@ -12780,7 +12868,9 @@
       <c r="E171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="8"/>
+      <c r="F171" t="s">
+        <v>207</v>
+      </c>
       <c r="G171" s="2" t="s">
         <v>207</v>
       </c>
@@ -12815,7 +12905,9 @@
       <c r="E172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F172" s="8"/>
+      <c r="F172" t="s">
+        <v>104</v>
+      </c>
       <c r="G172" s="2" t="s">
         <v>104</v>
       </c>
@@ -12850,7 +12942,9 @@
       <c r="E173" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F173" s="8"/>
+      <c r="F173" t="s">
+        <v>208</v>
+      </c>
       <c r="G173" s="2" t="s">
         <v>208</v>
       </c>
@@ -12885,7 +12979,9 @@
       <c r="E174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F174" s="8"/>
+      <c r="F174" t="s">
+        <v>209</v>
+      </c>
       <c r="G174" s="2" t="s">
         <v>209</v>
       </c>
@@ -12920,7 +13016,9 @@
       <c r="E175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F175" s="8"/>
+      <c r="F175" t="s">
+        <v>105</v>
+      </c>
       <c r="G175" s="2" t="s">
         <v>105</v>
       </c>
@@ -12955,7 +13053,9 @@
       <c r="E176" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F176" s="8"/>
+      <c r="F176" t="s">
+        <v>210</v>
+      </c>
       <c r="G176" s="2" t="s">
         <v>210</v>
       </c>
@@ -12990,7 +13090,9 @@
       <c r="E177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F177" s="8"/>
+      <c r="F177" t="s">
+        <v>106</v>
+      </c>
       <c r="G177" s="2" t="s">
         <v>106</v>
       </c>
@@ -13025,7 +13127,9 @@
       <c r="E178" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F178" s="8"/>
+      <c r="F178" t="s">
+        <v>211</v>
+      </c>
       <c r="G178" s="2" t="s">
         <v>211</v>
       </c>
@@ -13060,7 +13164,9 @@
       <c r="E179" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="8"/>
+      <c r="F179" t="s">
+        <v>212</v>
+      </c>
       <c r="G179" s="2" t="s">
         <v>212</v>
       </c>
@@ -13095,7 +13201,9 @@
       <c r="E180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F180" s="8"/>
+      <c r="F180" t="s">
+        <v>213</v>
+      </c>
       <c r="G180" s="2" t="s">
         <v>213</v>
       </c>
@@ -13130,7 +13238,9 @@
       <c r="E181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F181" s="8"/>
+      <c r="F181" t="s">
+        <v>214</v>
+      </c>
       <c r="G181" s="2" t="s">
         <v>214</v>
       </c>
@@ -13165,7 +13275,9 @@
       <c r="E182" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F182" s="8"/>
+      <c r="F182" t="s">
+        <v>215</v>
+      </c>
       <c r="G182" s="2" t="s">
         <v>215</v>
       </c>
@@ -13200,7 +13312,9 @@
       <c r="E183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F183" s="8"/>
+      <c r="F183" t="s">
+        <v>107</v>
+      </c>
       <c r="G183" s="2" t="s">
         <v>107</v>
       </c>
@@ -13235,7 +13349,9 @@
       <c r="E184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F184" s="8"/>
+      <c r="F184" t="s">
+        <v>216</v>
+      </c>
       <c r="G184" s="2" t="s">
         <v>216</v>
       </c>
@@ -13270,7 +13386,9 @@
       <c r="E185" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F185" s="8"/>
+      <c r="F185" t="s">
+        <v>217</v>
+      </c>
       <c r="G185" s="2" t="s">
         <v>217</v>
       </c>
@@ -13305,7 +13423,9 @@
       <c r="E186" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F186" s="8"/>
+      <c r="F186" t="s">
+        <v>218</v>
+      </c>
       <c r="G186" s="2" t="s">
         <v>218</v>
       </c>
@@ -13340,7 +13460,9 @@
       <c r="E187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F187" s="8"/>
+      <c r="F187" t="s">
+        <v>108</v>
+      </c>
       <c r="G187" s="2" t="s">
         <v>108</v>
       </c>
@@ -13375,7 +13497,9 @@
       <c r="E188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F188" s="8"/>
+      <c r="F188" t="s">
+        <v>109</v>
+      </c>
       <c r="G188" s="2" t="s">
         <v>109</v>
       </c>
@@ -13410,7 +13534,9 @@
       <c r="E189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F189" s="8"/>
+      <c r="F189" t="s">
+        <v>219</v>
+      </c>
       <c r="G189" s="2" t="s">
         <v>219</v>
       </c>
@@ -13445,7 +13571,9 @@
       <c r="E190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F190" s="8"/>
+      <c r="F190" t="s">
+        <v>220</v>
+      </c>
       <c r="G190" s="2" t="s">
         <v>220</v>
       </c>
@@ -13480,7 +13608,9 @@
       <c r="E191" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F191" s="8"/>
+      <c r="F191" t="s">
+        <v>221</v>
+      </c>
       <c r="G191" s="2" t="s">
         <v>221</v>
       </c>
@@ -13515,7 +13645,9 @@
       <c r="E192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F192" s="8"/>
+      <c r="F192" t="s">
+        <v>222</v>
+      </c>
       <c r="G192" s="2" t="s">
         <v>222</v>
       </c>
@@ -13550,7 +13682,9 @@
       <c r="E193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F193" s="8"/>
+      <c r="F193" t="s">
+        <v>223</v>
+      </c>
       <c r="G193" s="2" t="s">
         <v>223</v>
       </c>
@@ -13585,7 +13719,9 @@
       <c r="E194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F194" s="8"/>
+      <c r="F194" t="s">
+        <v>224</v>
+      </c>
       <c r="G194" s="2" t="s">
         <v>224</v>
       </c>
@@ -13620,7 +13756,9 @@
       <c r="E195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F195" s="8"/>
+      <c r="F195" t="s">
+        <v>225</v>
+      </c>
       <c r="G195" s="2" t="s">
         <v>225</v>
       </c>
@@ -13655,7 +13793,9 @@
       <c r="E196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F196" s="8"/>
+      <c r="F196" t="s">
+        <v>226</v>
+      </c>
       <c r="G196" s="2" t="s">
         <v>226</v>
       </c>
@@ -13690,7 +13830,9 @@
       <c r="E197" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F197" s="8"/>
+      <c r="F197" t="s">
+        <v>227</v>
+      </c>
       <c r="G197" s="2" t="s">
         <v>227</v>
       </c>
@@ -13725,7 +13867,9 @@
       <c r="E198" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F198" s="8"/>
+      <c r="F198" t="s">
+        <v>110</v>
+      </c>
       <c r="G198" s="2" t="s">
         <v>110</v>
       </c>
@@ -13760,7 +13904,9 @@
       <c r="E199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="8"/>
+      <c r="F199" t="s">
+        <v>228</v>
+      </c>
       <c r="G199" s="2" t="s">
         <v>228</v>
       </c>
@@ -13795,7 +13941,9 @@
       <c r="E200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F200" s="8"/>
+      <c r="F200" t="s">
+        <v>111</v>
+      </c>
       <c r="G200" s="2" t="s">
         <v>111</v>
       </c>
@@ -13830,7 +13978,9 @@
       <c r="E201" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F201" s="8"/>
+      <c r="F201" t="s">
+        <v>229</v>
+      </c>
       <c r="G201" s="2" t="s">
         <v>229</v>
       </c>
@@ -13865,7 +14015,9 @@
       <c r="E202" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F202" s="8"/>
+      <c r="F202" t="s">
+        <v>230</v>
+      </c>
       <c r="G202" s="2" t="s">
         <v>230</v>
       </c>
@@ -13900,7 +14052,9 @@
       <c r="E203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F203" s="8"/>
+      <c r="F203" t="s">
+        <v>231</v>
+      </c>
       <c r="G203" s="2" t="s">
         <v>231</v>
       </c>
@@ -13935,7 +14089,9 @@
       <c r="E204" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F204" s="8"/>
+      <c r="F204" t="s">
+        <v>232</v>
+      </c>
       <c r="G204" s="2" t="s">
         <v>232</v>
       </c>
@@ -13970,7 +14126,9 @@
       <c r="E205" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F205" s="8"/>
+      <c r="F205" t="s">
+        <v>233</v>
+      </c>
       <c r="G205" s="2" t="s">
         <v>233</v>
       </c>
@@ -14005,7 +14163,9 @@
       <c r="E206" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F206" s="8"/>
+      <c r="F206" t="s">
+        <v>234</v>
+      </c>
       <c r="G206" s="2" t="s">
         <v>234</v>
       </c>
@@ -14040,7 +14200,9 @@
       <c r="E207" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F207" s="8"/>
+      <c r="F207" t="s">
+        <v>235</v>
+      </c>
       <c r="G207" s="2" t="s">
         <v>235</v>
       </c>
@@ -14075,7 +14237,9 @@
       <c r="E208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F208" s="8"/>
+      <c r="F208" t="s">
+        <v>236</v>
+      </c>
       <c r="G208" s="2" t="s">
         <v>236</v>
       </c>
@@ -14110,7 +14274,9 @@
       <c r="E209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F209" s="8"/>
+      <c r="F209" t="s">
+        <v>112</v>
+      </c>
       <c r="G209" s="2" t="s">
         <v>112</v>
       </c>
@@ -14145,7 +14311,9 @@
       <c r="E210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F210" s="8"/>
+      <c r="F210" t="s">
+        <v>113</v>
+      </c>
       <c r="G210" s="2" t="s">
         <v>113</v>
       </c>
@@ -14180,7 +14348,9 @@
       <c r="E211" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F211" s="8"/>
+      <c r="F211" t="s">
+        <v>237</v>
+      </c>
       <c r="G211" s="2" t="s">
         <v>237</v>
       </c>
@@ -14215,7 +14385,9 @@
       <c r="E212" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F212" s="8"/>
+      <c r="F212" t="s">
+        <v>114</v>
+      </c>
       <c r="G212" s="2" t="s">
         <v>114</v>
       </c>
@@ -14250,7 +14422,9 @@
       <c r="E213" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F213" s="8"/>
+      <c r="F213" t="s">
+        <v>238</v>
+      </c>
       <c r="G213" s="2" t="s">
         <v>238</v>
       </c>
@@ -14285,7 +14459,9 @@
       <c r="E214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F214" s="8"/>
+      <c r="F214" t="s">
+        <v>239</v>
+      </c>
       <c r="G214" s="2" t="s">
         <v>239</v>
       </c>
@@ -14320,7 +14496,9 @@
       <c r="E215" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F215" s="8"/>
+      <c r="F215" t="s">
+        <v>115</v>
+      </c>
       <c r="G215" s="2" t="s">
         <v>115</v>
       </c>
@@ -14355,7 +14533,9 @@
       <c r="E216" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F216" s="8"/>
+      <c r="F216" t="s">
+        <v>240</v>
+      </c>
       <c r="G216" s="2" t="s">
         <v>240</v>
       </c>
@@ -14390,7 +14570,9 @@
       <c r="E217" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F217" s="8"/>
+      <c r="F217" t="s">
+        <v>241</v>
+      </c>
       <c r="G217" s="2" t="s">
         <v>241</v>
       </c>
@@ -14463,7 +14645,7 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{8C202365-0E59-F142-8C90-004FF5E7FE84}"/>
     <hyperlink ref="H3" r:id="rId8" xr:uid="{23DF7F5F-D330-924D-B99D-70A25C7F029B}"/>
     <hyperlink ref="H155" r:id="rId9" xr:uid="{DA48D940-BFE6-F843-AB4F-B1B885ACF998}"/>
-    <hyperlink ref="F1" r:id="rId10" xr:uid="{E83F6C02-E675-D742-BB46-135943B2B5A0}"/>
+    <hyperlink ref="F1" r:id="rId10" display="Title with Data" xr:uid="{E83F6C02-E675-D742-BB46-135943B2B5A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14476,10 +14658,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C8F3FC-B85D-AE42-97C3-240AD2E64CA8}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156:F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16619,7 +16801,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1459</v>
       </c>
@@ -16637,7 +16819,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1468</v>
       </c>
@@ -16655,7 +16837,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1479</v>
       </c>
@@ -16673,7 +16855,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>1484</v>
       </c>
@@ -16691,7 +16873,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1495</v>
       </c>
@@ -16709,7 +16891,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>1501</v>
       </c>
@@ -16727,7 +16909,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1511</v>
       </c>
@@ -16745,7 +16927,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1517</v>
       </c>
@@ -16763,7 +16945,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1527</v>
       </c>
@@ -16781,7 +16963,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1532</v>
       </c>
@@ -16799,7 +16981,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1543</v>
       </c>
@@ -16817,7 +16999,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>1549</v>
       </c>
@@ -16835,7 +17017,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1555</v>
       </c>
@@ -16853,7 +17035,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1565</v>
       </c>
@@ -16870,8 +17052,11 @@
       <c r="E126" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1571</v>
       </c>
@@ -16888,8 +17073,11 @@
       <c r="E127" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1581</v>
       </c>
@@ -16906,8 +17094,11 @@
       <c r="E128" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>1587</v>
       </c>
@@ -16924,8 +17115,11 @@
       <c r="E129" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1596</v>
       </c>
@@ -16942,8 +17136,11 @@
       <c r="E130" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1607</v>
       </c>
@@ -16960,8 +17157,11 @@
       <c r="E131" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1613</v>
       </c>
@@ -16978,8 +17178,11 @@
       <c r="E132" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1623</v>
       </c>
@@ -16996,8 +17199,11 @@
       <c r="E133" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>1633</v>
       </c>
@@ -17014,8 +17220,11 @@
       <c r="E134" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1635</v>
       </c>
@@ -17032,8 +17241,11 @@
       <c r="E135" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1645</v>
       </c>
@@ -17050,8 +17262,11 @@
       <c r="E136" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1651</v>
       </c>
@@ -17068,8 +17283,11 @@
       <c r="E137" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>1661</v>
       </c>
@@ -17086,8 +17304,11 @@
       <c r="E138" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1667</v>
       </c>
@@ -17104,8 +17325,11 @@
       <c r="E139" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>1677</v>
       </c>
@@ -17122,8 +17346,11 @@
       <c r="E140" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1683</v>
       </c>
@@ -17140,8 +17367,11 @@
       <c r="E141" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1693</v>
       </c>
@@ -17158,8 +17388,11 @@
       <c r="E142" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1699</v>
       </c>
@@ -17176,8 +17409,11 @@
       <c r="E143" s="7" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>1709</v>
       </c>
@@ -17192,8 +17428,11 @@
       <c r="E144" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1715</v>
       </c>
@@ -17208,8 +17447,11 @@
       <c r="E145" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1729</v>
       </c>
@@ -17224,8 +17466,11 @@
       <c r="E146" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>1731</v>
       </c>
@@ -17240,8 +17485,11 @@
       <c r="E147" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>1741</v>
       </c>
@@ -17256,8 +17504,11 @@
       <c r="E148" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1747</v>
       </c>
@@ -17272,8 +17523,11 @@
       <c r="E149" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>1757</v>
       </c>
@@ -17288,8 +17542,11 @@
       <c r="E150" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1767</v>
       </c>
@@ -17304,8 +17561,11 @@
       <c r="E151" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1777</v>
       </c>
@@ -17320,8 +17580,11 @@
       <c r="E152" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1783</v>
       </c>
@@ -17336,8 +17599,11 @@
       <c r="E153" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1789</v>
       </c>
@@ -17352,8 +17618,11 @@
       <c r="E154" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1795</v>
       </c>
@@ -17368,8 +17637,11 @@
       <c r="E155" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1809</v>
       </c>
@@ -17384,8 +17656,11 @@
       <c r="E156" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>1811</v>
       </c>
@@ -17400,8 +17675,11 @@
       <c r="E157" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1821</v>
       </c>
@@ -17416,8 +17694,11 @@
       <c r="E158" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1831</v>
       </c>
@@ -17432,8 +17713,11 @@
       <c r="E159" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1841</v>
       </c>
@@ -17448,8 +17732,11 @@
       <c r="E160" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1843</v>
       </c>
@@ -17464,8 +17751,11 @@
       <c r="E161" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1853</v>
       </c>
@@ -17480,8 +17770,11 @@
       <c r="E162" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1867</v>
       </c>
@@ -17496,8 +17789,11 @@
       <c r="E163" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1873</v>
       </c>
@@ -17512,8 +17808,11 @@
       <c r="E164" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1875</v>
       </c>
@@ -17528,8 +17827,11 @@
       <c r="E165" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>1890</v>
       </c>
@@ -17544,8 +17846,11 @@
       <c r="E166" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>1892</v>
       </c>
@@ -17560,8 +17865,11 @@
       <c r="E167" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1907</v>
       </c>
@@ -17576,8 +17884,11 @@
       <c r="E168" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1917</v>
       </c>
@@ -17592,8 +17903,11 @@
       <c r="E169" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1919</v>
       </c>
@@ -17608,8 +17922,11 @@
       <c r="E170" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1934</v>
       </c>
@@ -17624,8 +17941,11 @@
       <c r="E171" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1939</v>
       </c>
@@ -17640,8 +17960,11 @@
       <c r="E172" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1949</v>
       </c>
@@ -17656,8 +17979,11 @@
       <c r="E173" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1951</v>
       </c>
@@ -17672,8 +17998,11 @@
       <c r="E174" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1965</v>
       </c>
@@ -17688,8 +18017,11 @@
       <c r="E175" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1972</v>
       </c>
@@ -17704,8 +18036,11 @@
       <c r="E176" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1978</v>
       </c>
@@ -17720,8 +18055,11 @@
       <c r="E177" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1988</v>
       </c>
@@ -17736,8 +18074,11 @@
       <c r="E178" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1990</v>
       </c>
@@ -17752,8 +18093,11 @@
       <c r="E179" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2004</v>
       </c>
@@ -17768,8 +18112,11 @@
       <c r="E180" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2010</v>
       </c>
@@ -17784,8 +18131,11 @@
       <c r="E181" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2020</v>
       </c>
@@ -17800,8 +18150,11 @@
       <c r="E182" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2026</v>
       </c>
@@ -17816,8 +18169,11 @@
       <c r="E183" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2041</v>
       </c>
@@ -17832,8 +18188,11 @@
       <c r="E184" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2051</v>
       </c>
@@ -17848,8 +18207,11 @@
       <c r="E185" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2066</v>
       </c>
@@ -17864,8 +18226,11 @@
       <c r="E186" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2072</v>
       </c>
@@ -17880,8 +18245,11 @@
       <c r="E187" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2082</v>
       </c>
@@ -17896,8 +18264,11 @@
       <c r="E188" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2084</v>
       </c>
@@ -17912,8 +18283,11 @@
       <c r="E189" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2112</v>
       </c>
@@ -17928,8 +18302,11 @@
       <c r="E190" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>2118</v>
       </c>
@@ -17944,8 +18321,11 @@
       <c r="E191" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2142</v>
       </c>
@@ -17960,8 +18340,11 @@
       <c r="E192" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2153</v>
       </c>
@@ -17976,8 +18359,11 @@
       <c r="E193" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2159</v>
       </c>
@@ -17992,8 +18378,11 @@
       <c r="E194" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2173</v>
       </c>
@@ -18008,8 +18397,11 @@
       <c r="E195" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2175</v>
       </c>
@@ -18024,8 +18416,11 @@
       <c r="E196" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2199</v>
       </c>
@@ -18040,8 +18435,11 @@
       <c r="E197" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2205</v>
       </c>
@@ -18056,8 +18454,11 @@
       <c r="E198" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2228</v>
       </c>
@@ -18072,8 +18473,11 @@
       <c r="E199" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2230</v>
       </c>
@@ -18088,8 +18492,11 @@
       <c r="E200" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2238</v>
       </c>
@@ -18104,8 +18511,11 @@
       <c r="E201" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2252</v>
       </c>
@@ -18120,8 +18530,11 @@
       <c r="E202" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2253</v>
       </c>
@@ -18136,8 +18549,11 @@
       <c r="E203" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2292</v>
       </c>
@@ -18152,8 +18568,11 @@
       <c r="E204" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2298</v>
       </c>
@@ -18168,8 +18587,11 @@
       <c r="E205" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2308</v>
       </c>
@@ -18184,8 +18606,11 @@
       <c r="E206" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2314</v>
       </c>
@@ -18200,8 +18625,11 @@
       <c r="E207" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2324</v>
       </c>
@@ -18216,8 +18644,11 @@
       <c r="E208" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2329</v>
       </c>
@@ -18232,8 +18663,11 @@
       <c r="E209" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2339</v>
       </c>
@@ -18248,8 +18682,11 @@
       <c r="E210" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2346</v>
       </c>
@@ -18264,8 +18701,11 @@
       <c r="E211" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2356</v>
       </c>
@@ -18280,8 +18720,11 @@
       <c r="E212" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2362</v>
       </c>
@@ -18296,8 +18739,11 @@
       <c r="E213" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>2372</v>
       </c>
@@ -18312,8 +18758,11 @@
       <c r="E214" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2377</v>
       </c>
@@ -18328,8 +18777,11 @@
       <c r="E215" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2388</v>
       </c>
@@ -18344,8 +18796,11 @@
       <c r="E216" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2394</v>
       </c>
@@ -18360,8 +18815,11 @@
       <c r="E217" s="1" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -18370,7 +18828,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsErrors" dxfId="0" priority="2">
+    <cfRule type="containsErrors" dxfId="22" priority="2">
       <formula>ISERROR(B1)</formula>
     </cfRule>
   </conditionalFormatting>
